--- a/ClosedXML.Tests/Resource/Examples/Rows/RowSettings.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Rows/RowSettings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -393,8 +393,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" s="1" customFormat="1" ht="30" customHeight="1"/>
-    <x:row r="4" s="2" customFormat="1" ht="3" customHeight="1"/>
+    <x:row r="2" ht="30" customHeight="1" s="1" customFormat="1"/>
+    <x:row r="4" ht="3" customHeight="1" s="2" customFormat="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML.Tests/Resource/Examples/Rows/RowSettings.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Rows/RowSettings.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Row Settings" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Row Settings" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
